--- a/datas/서울시 채식 음식점 현황관리 리스트_202110291941.xlsx
+++ b/datas/서울시 채식 음식점 현황관리 리스트_202110291941.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\Desktop\toy-project\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA3A0F-EEF6-44C1-9948-328CC54A43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1DC256-023A-4F72-9FFD-FEE38DD5999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12734,9 +12734,6 @@
     <t>서울 용산구 회나무로13길 36 1층</t>
   </si>
   <si>
-    <t>버팔로 "치킨 맛" 랩(비건), 바비큐 "돼지고기 맛" 랩(비건), 필리치즈 스테이크 랩(비건), 바삭한 "치킨 맛" 시저 랩 (비건), 살사를 곁들인 그릴드 베지터블 케사디야 (비건), 필리치즈 스테이크 볼 (비건), 멕시칸 부리또 (비건), 버팔로 "치킨 맛" 샐러드 (비건), 바삭한 "치킨 맛" 시저 샐러드 (비건), 비욘드 버거 (비건), 비건 버팔로 치킨 버거 (비건), 레드렌틸콩 코코넛 커리 (비건)</t>
-  </si>
-  <si>
     <t>알리오올리오(락토,비건가능), 뽀모도로(락토,비건가능), 그린샐러드(비건)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12826,6 +12823,10 @@
   </si>
   <si>
     <t>비건케이크(비건), 소이라떼(비건), 돌체소이라떼(비건), 펌킨할로윈(일반식,비건가능)쿠소이스콘(오보), 크림소이라떼(락토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버팔로 치킨 맛 랩(비건), 바비큐 돼지고기 맛 랩(비건), 필리치즈 스테이크 랩(비건), 바삭한 치킨 맛 시저 랩 (비건), 살사를 곁들인 그릴드 베지터블 케사디야 (비건), 필리치즈 스테이크 볼 (비건), 멕시칸 부리또 (비건), 버팔로 치킨 맛 샐러드 (비건), 바삭한 치킨 맛 시저 샐러드 (비건), 비욘드 버거 (비건), 비건 버팔로 치킨 버거 (비건), 레드렌틸콩 코코넛 커리 (비건)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13219,8 +13220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F958" workbookViewId="0">
-      <selection activeCell="G969" sqref="G969"/>
+    <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
+      <selection activeCell="G973" sqref="G973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13484,7 +13485,7 @@
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -14519,7 +14520,7 @@
         <v>289</v>
       </c>
       <c r="G56" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -14979,7 +14980,7 @@
         <v>383</v>
       </c>
       <c r="G76" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -15071,7 +15072,7 @@
         <v>403</v>
       </c>
       <c r="G80" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -15623,7 +15624,7 @@
         <v>522</v>
       </c>
       <c r="G104" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
@@ -16267,7 +16268,7 @@
         <v>651</v>
       </c>
       <c r="G132" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.4">
@@ -21672,7 +21673,7 @@
         <v>1628</v>
       </c>
       <c r="G367" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.4">
@@ -22040,7 +22041,7 @@
         <v>1708</v>
       </c>
       <c r="G383" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.4">
@@ -28296,7 +28297,7 @@
         <v>2821</v>
       </c>
       <c r="G655" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.4">
@@ -29170,7 +29171,7 @@
         <v>2974</v>
       </c>
       <c r="G693" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.4">
@@ -30205,7 +30206,7 @@
         <v>3172</v>
       </c>
       <c r="G738" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.4">
@@ -30803,7 +30804,7 @@
         <v>3292</v>
       </c>
       <c r="G764" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.4">
@@ -30918,7 +30919,7 @@
         <v>3315</v>
       </c>
       <c r="G769" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.4">
@@ -30941,7 +30942,7 @@
         <v>3319</v>
       </c>
       <c r="G770" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.4">
@@ -31608,7 +31609,7 @@
         <v>3454</v>
       </c>
       <c r="G799" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.4">
@@ -31677,7 +31678,7 @@
         <v>3468</v>
       </c>
       <c r="G802" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.4">
@@ -32827,7 +32828,7 @@
         <v>3686</v>
       </c>
       <c r="G852" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.4">
@@ -32896,7 +32897,7 @@
         <v>3700</v>
       </c>
       <c r="G855" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.4">
@@ -32919,7 +32920,7 @@
         <v>3704</v>
       </c>
       <c r="G856" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.4">
@@ -34276,7 +34277,7 @@
         <v>3952</v>
       </c>
       <c r="G915" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.4">
@@ -34966,7 +34967,7 @@
         <v>4097</v>
       </c>
       <c r="G945" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.4">
@@ -35012,7 +35013,7 @@
         <v>4105</v>
       </c>
       <c r="G947" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.4">
@@ -35357,7 +35358,7 @@
         <v>4178</v>
       </c>
       <c r="G962" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.4">
@@ -35518,7 +35519,7 @@
         <v>4212</v>
       </c>
       <c r="G969" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.4">
@@ -35633,7 +35634,7 @@
         <v>4236</v>
       </c>
       <c r="G974" t="s">
-        <v>4237</v>
+        <v>4260</v>
       </c>
     </row>
   </sheetData>
